--- a/doc/项目wbs分解——725.xlsx
+++ b/doc/项目wbs分解——725.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangfei2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lvhaizhen/git/naierPOS/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7236"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180"/>
   </bookViews>
   <sheets>
     <sheet name="进度报告模板" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">进度报告模板!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="107">
   <si>
     <t>模块</t>
   </si>
@@ -418,6 +424,26 @@
   </si>
   <si>
     <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -444,14 +470,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -550,10 +576,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -736,12 +762,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -771,12 +797,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -958,30 +984,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56.5" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.09765625" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="9" customWidth="1"/>
-    <col min="7" max="7" width="12.09765625" customWidth="1"/>
-    <col min="8" max="8" width="15.69921875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.69921875" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.6640625" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C1"/>
       <c r="D1"/>
       <c r="F1"/>
     </row>
-    <row r="2" spans="2:10" ht="34.799999999999997" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="36" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1010,7 +1036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B3" s="38" t="s">
         <v>7</v>
       </c>
@@ -1035,7 +1061,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B4" s="39"/>
       <c r="C4" s="34"/>
       <c r="D4" s="2" t="s">
@@ -1056,7 +1082,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B5" s="39"/>
       <c r="C5" s="34"/>
       <c r="D5" s="2" t="s">
@@ -1077,7 +1103,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B6" s="39"/>
       <c r="C6" s="14"/>
       <c r="D6" s="2" t="s">
@@ -1098,7 +1124,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B7" s="39"/>
       <c r="C7" s="33" t="s">
         <v>14</v>
@@ -1121,7 +1147,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B8" s="39"/>
       <c r="C8" s="34"/>
       <c r="D8" s="2" t="s">
@@ -1140,7 +1166,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B9" s="39"/>
       <c r="C9" s="14"/>
       <c r="D9" s="2" t="s">
@@ -1161,7 +1187,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" s="28" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B10" s="39"/>
       <c r="C10" s="33" t="s">
         <v>18</v>
@@ -1180,7 +1206,7 @@
       </c>
       <c r="J10" s="27"/>
     </row>
-    <row r="11" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B11" s="39"/>
       <c r="C11" s="34"/>
       <c r="D11" s="2" t="s">
@@ -1201,7 +1227,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B12" s="39"/>
       <c r="C12" s="14"/>
       <c r="D12" s="2" t="s">
@@ -1222,7 +1248,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B13" s="39"/>
       <c r="C13" s="14"/>
       <c r="D13" s="2" t="s">
@@ -1243,7 +1269,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B14" s="39"/>
       <c r="C14" s="14"/>
       <c r="D14" s="2" t="s">
@@ -1264,7 +1290,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="6"/>
     </row>
-    <row r="15" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B15" s="39"/>
       <c r="C15" s="14"/>
       <c r="D15" s="2" t="s">
@@ -1285,7 +1311,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B16" s="39"/>
       <c r="C16" s="14"/>
       <c r="D16" s="15" t="s">
@@ -1306,7 +1332,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B17" s="39"/>
       <c r="C17" s="14"/>
       <c r="D17" s="15" t="s">
@@ -1327,7 +1353,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B18" s="39"/>
       <c r="C18" s="14"/>
       <c r="D18" s="2" t="s">
@@ -1348,7 +1374,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B19" s="39"/>
       <c r="C19" s="14"/>
       <c r="D19" s="2" t="s">
@@ -1369,7 +1395,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" spans="2:10" s="28" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B20" s="39"/>
       <c r="C20" s="29"/>
       <c r="D20" s="15" t="s">
@@ -1390,7 +1416,7 @@
       </c>
       <c r="J20" s="27"/>
     </row>
-    <row r="21" spans="2:10" s="28" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B21" s="39"/>
       <c r="C21" s="29"/>
       <c r="D21" s="15" t="s">
@@ -1411,7 +1437,7 @@
       </c>
       <c r="J21" s="27"/>
     </row>
-    <row r="22" spans="2:10" s="28" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B22" s="39"/>
       <c r="C22" s="29"/>
       <c r="D22" s="15" t="s">
@@ -1432,7 +1458,7 @@
       </c>
       <c r="J22" s="27"/>
     </row>
-    <row r="23" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B23" s="39"/>
       <c r="C23" s="14"/>
       <c r="D23" s="2" t="s">
@@ -1447,11 +1473,13 @@
       <c r="G23" s="5">
         <v>42582</v>
       </c>
-      <c r="H23" s="13"/>
+      <c r="H23" s="13" t="s">
+        <v>103</v>
+      </c>
       <c r="I23" s="4"/>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B24" s="39"/>
       <c r="C24" s="14"/>
       <c r="D24" s="2" t="s">
@@ -1466,11 +1494,13 @@
       <c r="G24" s="5">
         <v>42582</v>
       </c>
-      <c r="H24" s="13"/>
+      <c r="H24" s="13" t="s">
+        <v>102</v>
+      </c>
       <c r="I24" s="4"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B25" s="39"/>
       <c r="C25" s="33" t="s">
         <v>34</v>
@@ -1493,7 +1523,7 @@
       <c r="I25" s="4"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="2:10" s="28" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B26" s="39"/>
       <c r="C26" s="34"/>
       <c r="D26" s="15" t="s">
@@ -1514,7 +1544,7 @@
       </c>
       <c r="J26" s="27"/>
     </row>
-    <row r="27" spans="2:10" s="28" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B27" s="39"/>
       <c r="C27" s="29"/>
       <c r="D27" s="15" t="s">
@@ -1535,7 +1565,7 @@
       </c>
       <c r="J27" s="27"/>
     </row>
-    <row r="28" spans="2:10" s="28" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B28" s="39"/>
       <c r="C28" s="29"/>
       <c r="D28" s="15" t="s">
@@ -1556,7 +1586,7 @@
       </c>
       <c r="J28" s="27"/>
     </row>
-    <row r="29" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B29" s="39"/>
       <c r="C29" s="14"/>
       <c r="D29" s="2" t="s">
@@ -1575,7 +1605,7 @@
       <c r="I29" s="4"/>
       <c r="J29" s="6"/>
     </row>
-    <row r="30" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B30" s="39"/>
       <c r="C30" s="14"/>
       <c r="D30" s="2" t="s">
@@ -1594,7 +1624,7 @@
       <c r="I30" s="4"/>
       <c r="J30" s="6"/>
     </row>
-    <row r="31" spans="2:10" s="28" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B31" s="39"/>
       <c r="C31" s="36" t="s">
         <v>41</v>
@@ -1617,7 +1647,7 @@
       </c>
       <c r="J31" s="27"/>
     </row>
-    <row r="32" spans="2:10" s="28" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B32" s="39"/>
       <c r="C32" s="37"/>
       <c r="D32" s="15" t="s">
@@ -1638,7 +1668,7 @@
       </c>
       <c r="J32" s="27"/>
     </row>
-    <row r="33" spans="2:10" s="28" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B33" s="39"/>
       <c r="C33" s="36" t="s">
         <v>44</v>
@@ -1661,7 +1691,7 @@
       </c>
       <c r="J33" s="27"/>
     </row>
-    <row r="34" spans="2:10" s="28" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" s="28" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B34" s="39"/>
       <c r="C34" s="37"/>
       <c r="D34" s="15" t="s">
@@ -1682,7 +1712,7 @@
       </c>
       <c r="J34" s="27"/>
     </row>
-    <row r="35" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B35" s="39"/>
       <c r="C35" s="33" t="s">
         <v>47</v>
@@ -1703,7 +1733,7 @@
       <c r="I35" s="4"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B36" s="39"/>
       <c r="C36" s="34"/>
       <c r="D36" s="2" t="s">
@@ -1722,7 +1752,7 @@
       <c r="I36" s="4"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B37" s="39"/>
       <c r="C37" s="14"/>
       <c r="D37" s="2" t="s">
@@ -1741,7 +1771,7 @@
       <c r="I37" s="4"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="2:10" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" ht="18" x14ac:dyDescent="0.2">
       <c r="B38" s="39"/>
       <c r="C38" s="14"/>
       <c r="D38" s="16" t="s">
@@ -1760,7 +1790,7 @@
       <c r="I38" s="20"/>
       <c r="J38" s="22"/>
     </row>
-    <row r="39" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B39" s="32" t="s">
         <v>8</v>
       </c>
@@ -1785,7 +1815,7 @@
       <c r="I39" s="4"/>
       <c r="J39" s="6"/>
     </row>
-    <row r="40" spans="2:10" s="18" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" s="18" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="32"/>
       <c r="C40" s="35" t="s">
         <v>52</v>
@@ -1808,7 +1838,7 @@
       <c r="I40" s="5"/>
       <c r="J40" s="6"/>
     </row>
-    <row r="41" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B41" s="32"/>
       <c r="C41" s="35"/>
       <c r="D41" s="7" t="s">
@@ -1829,7 +1859,7 @@
       <c r="I41" s="3"/>
       <c r="J41" s="6"/>
     </row>
-    <row r="42" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B42" s="32"/>
       <c r="C42" s="35"/>
       <c r="D42" s="7" t="s">
@@ -1850,7 +1880,7 @@
       <c r="I42" s="3"/>
       <c r="J42" s="6"/>
     </row>
-    <row r="43" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B43" s="32"/>
       <c r="C43" s="35" t="s">
         <v>72</v>
@@ -1867,11 +1897,13 @@
       <c r="G43" s="5">
         <v>42594</v>
       </c>
-      <c r="H43" s="13"/>
+      <c r="H43" s="13" t="s">
+        <v>104</v>
+      </c>
       <c r="I43" s="5"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B44" s="32"/>
       <c r="C44" s="35"/>
       <c r="D44" s="2" t="s">
@@ -1886,11 +1918,13 @@
       <c r="G44" s="5">
         <v>42594</v>
       </c>
-      <c r="H44" s="13"/>
+      <c r="H44" s="13" t="s">
+        <v>104</v>
+      </c>
       <c r="I44" s="5"/>
       <c r="J44" s="6"/>
     </row>
-    <row r="45" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B45" s="32"/>
       <c r="C45" s="35"/>
       <c r="D45" s="2" t="s">
@@ -1905,11 +1939,13 @@
       <c r="G45" s="5">
         <v>42594</v>
       </c>
-      <c r="H45" s="13"/>
+      <c r="H45" s="13" t="s">
+        <v>104</v>
+      </c>
       <c r="I45" s="5"/>
       <c r="J45" s="6"/>
     </row>
-    <row r="46" spans="2:10" s="18" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" s="18" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="32"/>
       <c r="C46" s="35" t="s">
         <v>53</v>
@@ -1926,11 +1962,13 @@
       <c r="G46" s="5">
         <v>42596</v>
       </c>
-      <c r="H46" s="13"/>
+      <c r="H46" s="13" t="s">
+        <v>105</v>
+      </c>
       <c r="I46" s="5"/>
       <c r="J46" s="6"/>
     </row>
-    <row r="47" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:10" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B47" s="32"/>
       <c r="C47" s="35"/>
       <c r="D47" s="7" t="s">
@@ -1945,11 +1983,13 @@
       <c r="G47" s="5">
         <v>42596</v>
       </c>
-      <c r="H47" s="13"/>
+      <c r="H47" s="13" t="s">
+        <v>106</v>
+      </c>
       <c r="I47" s="3"/>
       <c r="J47" s="6"/>
     </row>
-    <row r="48" spans="2:10" s="18" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" s="18" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="32"/>
       <c r="C48" s="35" t="s">
         <v>54</v>
@@ -1972,7 +2012,7 @@
       <c r="I48" s="5"/>
       <c r="J48" s="6"/>
     </row>
-    <row r="49" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B49" s="32"/>
       <c r="C49" s="35"/>
       <c r="D49" s="7" t="s">
@@ -1993,7 +2033,7 @@
       <c r="I49" s="3"/>
       <c r="J49" s="6"/>
     </row>
-    <row r="50" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B50" s="32"/>
       <c r="C50" s="35"/>
       <c r="D50" s="7" t="s">
@@ -2014,7 +2054,7 @@
       <c r="I50" s="3"/>
       <c r="J50" s="6"/>
     </row>
-    <row r="51" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B51" s="32"/>
       <c r="C51" s="35"/>
       <c r="D51" s="7" t="s">
@@ -2035,7 +2075,7 @@
       <c r="I51" s="3"/>
       <c r="J51" s="6"/>
     </row>
-    <row r="52" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B52" s="32"/>
       <c r="C52" s="35"/>
       <c r="D52" s="7" t="s">
@@ -2056,7 +2096,7 @@
       <c r="I52" s="3"/>
       <c r="J52" s="6"/>
     </row>
-    <row r="53" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B53" s="32"/>
       <c r="C53" s="35"/>
       <c r="D53" s="7" t="s">
@@ -2077,7 +2117,7 @@
       <c r="I53" s="3"/>
       <c r="J53" s="6"/>
     </row>
-    <row r="54" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B54" s="32"/>
       <c r="C54" s="35"/>
       <c r="D54" s="7" t="s">
@@ -2098,7 +2138,7 @@
       <c r="I54" s="3"/>
       <c r="J54" s="6"/>
     </row>
-    <row r="55" spans="2:10" s="18" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" s="18" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="32"/>
       <c r="C55" s="35" t="s">
         <v>55</v>
@@ -2121,7 +2161,7 @@
       <c r="I55" s="5"/>
       <c r="J55" s="6"/>
     </row>
-    <row r="56" spans="2:10" s="18" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" s="18" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="32"/>
       <c r="C56" s="35"/>
       <c r="D56" s="2" t="s">
@@ -2142,7 +2182,7 @@
       <c r="I56" s="5"/>
       <c r="J56" s="6"/>
     </row>
-    <row r="57" spans="2:10" s="18" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:10" s="18" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="32"/>
       <c r="C57" s="35"/>
       <c r="D57" s="2" t="s">
@@ -2163,7 +2203,7 @@
       <c r="I57" s="5"/>
       <c r="J57" s="6"/>
     </row>
-    <row r="58" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B58" s="32"/>
       <c r="C58" s="35"/>
       <c r="D58" s="7" t="s">
@@ -2184,7 +2224,7 @@
       <c r="I58" s="3"/>
       <c r="J58" s="6"/>
     </row>
-    <row r="59" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:10" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B59" s="32"/>
       <c r="C59" s="35"/>
       <c r="D59" s="7" t="s">
@@ -2205,7 +2245,7 @@
       <c r="I59" s="3"/>
       <c r="J59" s="6"/>
     </row>
-    <row r="60" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:10" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B60" s="32"/>
       <c r="C60" s="31" t="s">
         <v>56</v>
@@ -2226,7 +2266,7 @@
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
     </row>
-    <row r="61" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B61" s="32"/>
       <c r="C61" s="31"/>
       <c r="D61" s="7" t="s">
@@ -2245,7 +2285,7 @@
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
     </row>
-    <row r="62" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:10" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B62" s="32"/>
       <c r="C62" s="31"/>
       <c r="D62" s="7" t="s">
@@ -2264,7 +2304,7 @@
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
     </row>
-    <row r="63" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:10" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B63" s="32"/>
       <c r="C63" s="31"/>
       <c r="D63" s="7" t="s">
@@ -2283,7 +2323,7 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
     </row>
-    <row r="64" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:10" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="B64" s="32"/>
       <c r="C64" s="31"/>
       <c r="D64" s="7" t="s">
@@ -2302,7 +2342,7 @@
       <c r="I64" s="6"/>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:10" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B65" s="32"/>
       <c r="C65" s="31"/>
       <c r="D65" s="17" t="s">
@@ -2321,7 +2361,7 @@
       <c r="I65" s="6"/>
       <c r="J65" s="6"/>
     </row>
-    <row r="66" spans="2:10" s="18" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:10" s="18" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B66" s="32"/>
       <c r="C66" s="31"/>
       <c r="D66" s="17" t="s">
